--- a/Project/TESTCASE_PARABANK.xlsx
+++ b/Project/TESTCASE_PARABANK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMIT SINGH\OneDrive\Desktop\TOPS\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EB4586-04F4-41DC-AD58-E361D8F06369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443EA0CF-69DD-4408-8938-9835558D547F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2890,6 +2890,13 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2898,13 +2905,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3189,8 +3189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K37" sqref="J37:K37"/>
+    <sheetView tabSelected="1" topLeftCell="C21" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="35.4" customHeight="1"/>
@@ -3337,19 +3337,19 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>327</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="50"/>
     </row>
     <row r="6" spans="1:11" ht="54">
       <c r="A6" s="7" t="s">
@@ -3546,19 +3546,19 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:11" ht="34.200000000000003" customHeight="1">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="48" t="s">
         <v>597</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="164.4" customHeight="1">
       <c r="A13" s="7" t="s">
@@ -3951,19 +3951,19 @@
       <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:11" ht="18">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="48" t="s">
         <v>326</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="47"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="50"/>
     </row>
     <row r="26" spans="1:11" ht="72">
       <c r="A26" s="1" t="s">
@@ -5049,19 +5049,19 @@
       <c r="K60" s="6"/>
     </row>
     <row r="61" spans="1:11" ht="18">
-      <c r="A61" s="45" t="s">
+      <c r="A61" s="48" t="s">
         <v>325</v>
       </c>
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="46"/>
-      <c r="J61" s="46"/>
-      <c r="K61" s="47"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="50"/>
     </row>
     <row r="62" spans="1:11" ht="191.4" customHeight="1">
       <c r="A62" s="1" t="s">
@@ -5724,7 +5724,7 @@
       <c r="J82" s="39" t="s">
         <v>571</v>
       </c>
-      <c r="K82" s="48"/>
+      <c r="K82" s="45"/>
     </row>
     <row r="83" spans="1:11" ht="54">
       <c r="A83" s="1" t="s">
@@ -6711,7 +6711,7 @@
       <c r="A114" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B114" s="49">
+      <c r="B114" s="46">
         <v>17.2</v>
       </c>
       <c r="C114" s="23" t="s">
@@ -6775,7 +6775,7 @@
       <c r="A116" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B116" s="49">
+      <c r="B116" s="46">
         <v>17.399999999999999</v>
       </c>
       <c r="C116" s="23" t="s">
@@ -6837,7 +6837,7 @@
       <c r="A118" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="B118" s="50">
+      <c r="B118" s="47">
         <v>17.600000000000001</v>
       </c>
       <c r="C118" s="30" t="s">
@@ -6901,7 +6901,7 @@
       <c r="A120" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B120" s="49">
+      <c r="B120" s="46">
         <v>17.8</v>
       </c>
       <c r="C120" s="23" t="s">
@@ -6965,7 +6965,7 @@
       <c r="A122" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B122" s="49" t="s">
+      <c r="B122" s="46" t="s">
         <v>637</v>
       </c>
       <c r="C122" s="23" t="s">
@@ -6996,7 +6996,7 @@
       <c r="A123" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B123" s="49">
+      <c r="B123" s="46">
         <v>18</v>
       </c>
       <c r="C123" s="23" t="s">
@@ -7027,7 +7027,7 @@
       <c r="A124" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B124" s="49">
+      <c r="B124" s="46">
         <v>18.100000000000001</v>
       </c>
       <c r="C124" s="23" t="s">
@@ -7055,19 +7055,19 @@
       <c r="K124" s="25"/>
     </row>
     <row r="125" spans="1:11" ht="18">
-      <c r="A125" s="45" t="s">
+      <c r="A125" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="B125" s="46"/>
-      <c r="C125" s="46"/>
-      <c r="D125" s="46"/>
-      <c r="E125" s="46"/>
-      <c r="F125" s="46"/>
-      <c r="G125" s="46"/>
-      <c r="H125" s="46"/>
-      <c r="I125" s="46"/>
-      <c r="J125" s="46"/>
-      <c r="K125" s="47"/>
+      <c r="B125" s="49"/>
+      <c r="C125" s="49"/>
+      <c r="D125" s="49"/>
+      <c r="E125" s="49"/>
+      <c r="F125" s="49"/>
+      <c r="G125" s="49"/>
+      <c r="H125" s="49"/>
+      <c r="I125" s="49"/>
+      <c r="J125" s="49"/>
+      <c r="K125" s="50"/>
     </row>
     <row r="126" spans="1:11" ht="88.8" customHeight="1">
       <c r="A126" s="7" t="s">
